--- a/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter02/Trendline.xlsx
+++ b/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter02/Trendline.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Desktop\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtalebiz\Desktop\Jupyter\Examples\LinkedIn\Excel_Data_Analysis\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B892793-4F5F-4684-B912-6024B3AE7CE9}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B1D0B4-9621-4370-BC3A-EA1142CF0965}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -182,6 +188,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$27</c:f>
